--- a/Data/Varlist.xlsx
+++ b/Data/Varlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\user\dekkerm\Projects\AR6_Variance\variancedecomposition\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CECE9A-E403-464E-8751-FDCE8908B5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D55060E-287A-438A-A978-71D320F71930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14235" yWindow="8160" windowWidth="21600" windowHeight="12615" firstSheet="1" activeTab="1" xr2:uid="{533C8E6D-95F2-4DEC-B07C-E829EF0792A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{533C8E6D-95F2-4DEC-B07C-E829EF0792A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Emissions" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
   <si>
     <t>Variable</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>Secondary Energy Liquids</t>
+  </si>
+  <si>
+    <t>Emissions</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Wind+Solar</t>
   </si>
 </sst>
 </file>
@@ -638,10 +644,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A8C9F0-F45B-4D80-8F60-04CC3CF0ED1C}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -818,25 +824,25 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
+        <v>63</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>37</v>
@@ -844,7 +850,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -852,7 +858,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>37</v>
@@ -860,7 +866,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>37</v>
@@ -868,7 +874,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>37</v>
@@ -876,23 +882,23 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>44</v>
@@ -900,7 +906,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -908,7 +914,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>44</v>
@@ -916,7 +922,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>44</v>
@@ -924,23 +930,23 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -948,7 +954,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>50</v>
@@ -956,7 +962,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>50</v>
@@ -964,23 +970,23 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>57</v>
@@ -988,7 +994,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>57</v>
@@ -996,7 +1002,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>57</v>
@@ -1004,7 +1010,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>57</v>
@@ -1012,29 +1018,86 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>61</v>
       </c>
     </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Data/Varlist.xlsx
+++ b/Data/Varlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\user\dekkerm\Projects\AR6_Variance\variancedecomposition\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D55060E-287A-438A-A978-71D320F71930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D907927B-2886-4281-B76F-4AFD84DC16BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{533C8E6D-95F2-4DEC-B07C-E829EF0792A8}"/>
   </bookViews>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A8C9F0-F45B-4D80-8F60-04CC3CF0ED1C}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Data/Varlist.xlsx
+++ b/Data/Varlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\user\dekkerm\Projects\AR6_Variance\variancedecomposition\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D55060E-287A-438A-A978-71D320F71930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D2C2C0-EDE0-4A4D-AB65-C77B1221D869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{533C8E6D-95F2-4DEC-B07C-E829EF0792A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{533C8E6D-95F2-4DEC-B07C-E829EF0792A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Emissions" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="103">
   <si>
     <t>Variable</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Primary Energy|Hydro</t>
   </si>
   <si>
-    <t>Primary Energy|Wind+Solar</t>
-  </si>
-  <si>
     <t>Secondary Energy|Electricity</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>Final Energy|Transportation|Gases</t>
   </si>
   <si>
-    <t>Final Energy|Transportation|Liquids</t>
-  </si>
-  <si>
     <t>Final Energy|Transportation|Hydrogen</t>
   </si>
   <si>
@@ -227,7 +221,130 @@
     <t>Emissions</t>
   </si>
   <si>
-    <t>Secondary Energy|Electricity|Wind+Solar</t>
+    <t>Final Energy|Transportation|Liquids|Bioenergy</t>
+  </si>
+  <si>
+    <t>Carbon Sequestration|CCS</t>
+  </si>
+  <si>
+    <t>Carbon Sequestration|CCS|Biomass</t>
+  </si>
+  <si>
+    <t>Carbon Sequestration|CCS|Fossil</t>
+  </si>
+  <si>
+    <t>Carbon Sequestration|CCS|Industrial Processes</t>
+  </si>
+  <si>
+    <t>Carbon Sequestration|Direct Air Capture</t>
+  </si>
+  <si>
+    <t>Carbon Sequestration|Land Use</t>
+  </si>
+  <si>
+    <t>Carbon Sequestration|Land Use|Afforestation</t>
+  </si>
+  <si>
+    <t>CCS</t>
+  </si>
+  <si>
+    <t>Emissions|CH4</t>
+  </si>
+  <si>
+    <t>Emissions|CH4|AFOLU</t>
+  </si>
+  <si>
+    <t>Emissions|CO2|AFOLU</t>
+  </si>
+  <si>
+    <t>Land stuff</t>
+  </si>
+  <si>
+    <t>Land Cover|Forest</t>
+  </si>
+  <si>
+    <t>Land Cover|Cropland</t>
+  </si>
+  <si>
+    <t>Land Cover|Pasture</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Geothermal</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Ocean</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Other</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Non-Biomass Renewables</t>
+  </si>
+  <si>
+    <t>Primary Energy|Non-Biomass Renewables</t>
+  </si>
+  <si>
+    <t>Primary Energy|Other</t>
+  </si>
+  <si>
+    <t>Primary Energy|Ocean</t>
+  </si>
+  <si>
+    <t>Primary Energy|Geothermal</t>
+  </si>
+  <si>
+    <t>Primary Energy|Renewables (incl. Biomass)</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Renewables (incl. Biomass)</t>
+  </si>
+  <si>
+    <t>Emissions|N2O</t>
+  </si>
+  <si>
+    <t>Emissions|N2O|AFOLU</t>
+  </si>
+  <si>
+    <t>Emissions|CO2|Energy</t>
+  </si>
+  <si>
+    <t>Emissions|CH4|Energy</t>
+  </si>
+  <si>
+    <t>Generator</t>
+  </si>
+  <si>
+    <t>Primary Energy|Other sources</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Other Sources</t>
+  </si>
+  <si>
+    <t>Emissions|N2O|Energy</t>
+  </si>
+  <si>
+    <t>Fractional</t>
+  </si>
+  <si>
+    <t>Final Energy</t>
+  </si>
+  <si>
+    <t>Final Energy|Solids|Biomass</t>
+  </si>
+  <si>
+    <t>Final Energy|Hydrogen</t>
+  </si>
+  <si>
+    <t>Final Energy Fuels</t>
+  </si>
+  <si>
+    <t>Final Energy|Electricity</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|w/ CCS</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Coal+Gas|w/o CCS</t>
   </si>
 </sst>
 </file>
@@ -271,11 +388,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,42 +711,42 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -644,456 +759,892 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A8C9F0-F45B-4D80-8F60-04CC3CF0ED1C}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="3" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>62</v>
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
